--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mandeep.kumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1091460\Downloads\mosip-data-1.2.0.1\mosip-data-1.2.0.1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C54510-A811-44DF-8075-59BCBA509046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,17 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,456 +490,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" style="1"/>
-    <col min="5" max="6" width="8.42578125" style="1"/>
+    <col min="1" max="16384" width="8.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>101</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>103</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>104</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>105</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>106</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>107</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>101</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>102</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>103</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>104</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>105</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>106</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>6</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>107</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>7</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>7</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\Desktop\NIRA MASTERDATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92496543-070D-41D5-87D0-F4658E971482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DDBF551D-E67E-491A-8323-5D3C3D17B275}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="daysofweek_list" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>code</t>
   </si>
@@ -61,18 +56,21 @@
     <t>SUN</t>
   </si>
   <si>
-    <t>f</t>
+    <t>false</t>
   </si>
   <si>
     <t>eng</t>
   </si>
   <si>
-    <t>t</t>
+    <t>true</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
+    <t>2024-02-15 06:37:13.962</t>
+  </si>
+  <si>
     <t>MON</t>
   </si>
   <si>
@@ -115,569 +113,73 @@
     <t>SAM</t>
   </si>
   <si>
-    <t>Ø§Ù„Ø´Ù…Ø³</t>
+    <t>الشمس</t>
   </si>
   <si>
     <t>ara</t>
   </si>
   <si>
-    <t>Ø§Ù„Ø¥Ø«Ù†ÙŠÙ†</t>
-  </si>
-  <si>
-    <t>Ø§Ù„Ø«Ù„Ø§Ø«Ø§Ø¡</t>
-  </si>
-  <si>
-    <t>ØªØ²ÙˆØ¬</t>
-  </si>
-  <si>
-    <t>Ø®Ù…ÙŠØ³</t>
-  </si>
-  <si>
-    <t>Ø§Ù„Ø¬Ù…Ø¹Ø©</t>
-  </si>
-  <si>
-    <t>Ø¬Ù„Ø³</t>
+    <t>الإثنين</t>
+  </si>
+  <si>
+    <t>الثلاثاء</t>
+  </si>
+  <si>
+    <t>تزوج</t>
+  </si>
+  <si>
+    <t>خميس</t>
+  </si>
+  <si>
+    <t>الجمعة</t>
+  </si>
+  <si>
+    <t>جلس</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -692,44 +194,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -757,31 +259,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -809,23 +294,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,174 +305,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4580D1-630A-4E60-90DB-68CD2D803F57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1064,19 +541,19 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>45337.27585604167</v>
+      <c r="H2" t="s">
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1093,19 +570,19 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1">
-        <v>45337.27585604167</v>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1122,19 +599,19 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="1">
-        <v>45337.27585604167</v>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1151,19 +628,19 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1">
-        <v>45337.27585604167</v>
+      <c r="H5" t="s">
+        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1180,19 +657,19 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1">
-        <v>45337.27585604167</v>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1209,19 +686,19 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="1">
-        <v>45337.27585604167</v>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1238,19 +715,19 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1">
-        <v>45337.27585604167</v>
+      <c r="H8" t="s">
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1259,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1267,19 +744,19 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="1">
-        <v>45337.27585604167</v>
+      <c r="H9" t="s">
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1288,7 +765,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -1296,19 +773,19 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="1">
-        <v>45337.27585604167</v>
+      <c r="H10" t="s">
+        <v>17</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1317,7 +794,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
@@ -1325,19 +802,19 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1">
-        <v>45337.27585604167</v>
+      <c r="H11" t="s">
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1346,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -1354,19 +831,19 @@
       <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="1">
-        <v>45337.27585604167</v>
+      <c r="H12" t="s">
+        <v>17</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1375,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1383,19 +860,19 @@
       <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="1">
-        <v>45337.27585604167</v>
+      <c r="H13" t="s">
+        <v>17</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -1404,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -1412,19 +889,19 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="1">
-        <v>45337.27585604167</v>
+      <c r="H14" t="s">
+        <v>17</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1433,7 +910,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1441,19 +918,19 @@
       <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="1">
-        <v>45337.27585604167</v>
+      <c r="H15" t="s">
+        <v>17</v>
       </c>
       <c r="K15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1462,7 +939,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
@@ -1470,19 +947,19 @@
       <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="1">
-        <v>45337.27585604167</v>
+      <c r="H16" t="s">
+        <v>17</v>
       </c>
       <c r="K16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1491,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -1499,19 +976,19 @@
       <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="1">
-        <v>45337.27585604167</v>
+      <c r="H17" t="s">
+        <v>17</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1520,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -1528,19 +1005,19 @@
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="1">
-        <v>45337.27585604167</v>
+      <c r="H18" t="s">
+        <v>17</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1549,7 +1026,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
@@ -1557,19 +1034,19 @@
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="1">
-        <v>45337.27585604167</v>
+      <c r="H19" t="s">
+        <v>17</v>
       </c>
       <c r="K19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -1578,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -1586,19 +1063,19 @@
       <c r="G20" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="1">
-        <v>45337.27585604167</v>
+      <c r="H20" t="s">
+        <v>17</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -1607,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1615,19 +1092,19 @@
       <c r="G21" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="1">
-        <v>45337.27585604167</v>
+      <c r="H21" t="s">
+        <v>17</v>
       </c>
       <c r="K21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1636,7 +1113,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -1644,14 +1121,25 @@
       <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="1">
-        <v>45337.27585604167</v>
+      <c r="H22" t="s">
+        <v>17</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>